--- a/sample/Signals_ver2.xlsx
+++ b/sample/Signals_ver2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f465ed088dabd7d/home/projects/diff-tools/sample_file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f465ed088dabd7d/home/projects/diff-tools/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_AD4D066CA252ABDACC1048ED9955C5AE72EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC93BD0D-2651-4568-B54D-5B3D68CEA8B1}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_AD4D066CA252ABDACC1048ED9955C5AE72EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9964AFA-C5FB-49B5-9908-2CA4A4ADF2CE}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="4215" windowWidth="14760" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15735" yWindow="6810" windowWidth="14760" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -121,6 +118,13 @@
   </si>
   <si>
     <t xml:space="preserve">       </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最小値</t>
+    <rPh sb="0" eb="3">
+      <t>サイショウチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -183,6 +187,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E8C528E-D3D0-4BA8-A037-4C486F9C541A}" name="テーブル1" displayName="テーブル1" ref="B2:G13" totalsRowShown="0">
   <autoFilter ref="B2:G13" xr:uid="{4E8C528E-D3D0-4BA8-A037-4C486F9C541A}"/>
@@ -191,7 +199,7 @@
     <tableColumn id="2" xr3:uid="{5FD41B15-BC80-493B-ADBC-5B7B4BA3D58D}" name="name"/>
     <tableColumn id="3" xr3:uid="{DF64B2A4-D5A7-4EDF-9DD1-3E300C179AA9}" name="description"/>
     <tableColumn id="4" xr3:uid="{308A1970-A581-40A9-B59A-3A27F32D3A87}" name="value"/>
-    <tableColumn id="5" xr3:uid="{9A4A32E9-6C2D-48F7-9D7B-171542F2FF82}" name="min"/>
+    <tableColumn id="5" xr3:uid="{9A4A32E9-6C2D-48F7-9D7B-171542F2FF82}" name="最小値"/>
     <tableColumn id="6" xr3:uid="{77123DE7-29C0-4932-9727-3ED61136007A}" name="max"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -464,7 +472,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -485,16 +493,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -502,10 +510,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -522,10 +530,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -542,10 +550,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -562,10 +570,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -582,16 +590,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>40</v>
@@ -602,10 +610,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -622,10 +630,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>45</v>
@@ -642,10 +650,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>55</v>
@@ -662,10 +670,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>23</v>
@@ -682,10 +690,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>65</v>
@@ -702,10 +710,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -719,7 +727,7 @@
     </row>
     <row r="14" spans="2:7">
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
